--- a/excel1.xlsx
+++ b/excel1.xlsx
@@ -343,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -369,6 +369,21 @@
     <row r="4" spans="1:1">
       <c r="A4">
         <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>777</v>
       </c>
     </row>
   </sheetData>

--- a/excel1.xlsx
+++ b/excel1.xlsx
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -384,6 +384,11 @@
     <row r="8" spans="1:1">
       <c r="A8">
         <v>777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/excel1.xlsx
+++ b/excel1.xlsx
@@ -343,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -389,6 +389,11 @@
     <row r="9" spans="1:1">
       <c r="A9">
         <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
